--- a/Data Files/Sign up Request Meeting.xlsx
+++ b/Data Files/Sign up Request Meeting.xlsx
@@ -53,23 +53,23 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Onyango</t>
-  </si>
-  <si>
-    <t>samuelkariuki@gmail.com</t>
-  </si>
-  <si>
     <t>desteg</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Gituto</t>
+  </si>
+  <si>
+    <t>dennisgituto@yahoo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +81,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,9 +114,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -428,65 +436,69 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="41.77734375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="21.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="15.44140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Files/Sign up Request Meeting.xlsx
+++ b/Data Files/Sign up Request Meeting.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>url</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>title</t>
   </si>
@@ -45,9 +42,6 @@
   </si>
   <si>
     <t>confirmPassword</t>
-  </si>
-  <si>
-    <t>https://sandbox.vsms.tezzasolutions.com/index</t>
   </si>
   <si>
     <t>Mr</t>
@@ -433,23 +427,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.77734375" style="2" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="21.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="15.44140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="21.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="15.44140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -468,37 +459,30 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
